--- a/ig/ch-vacd/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -293,10 +293,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-vacd/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
+++ b/ig/ch-vacd/CodeSystem-ch-vacd-recommendation-categories-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
